--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il16-Cd4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il16-Cd4.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.243623333333333</v>
+        <v>4.141153333333333</v>
       </c>
       <c r="H2">
-        <v>12.73087</v>
+        <v>12.42346</v>
       </c>
       <c r="I2">
-        <v>0.2469246453968972</v>
+        <v>0.2530231305454066</v>
       </c>
       <c r="J2">
-        <v>0.2469246453968973</v>
+        <v>0.2530231305454066</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.033717666666667</v>
+        <v>2.441151666666667</v>
       </c>
       <c r="N2">
-        <v>3.101153</v>
+        <v>7.323455</v>
       </c>
       <c r="O2">
-        <v>0.03978942744299106</v>
+        <v>0.1131710230270566</v>
       </c>
       <c r="P2">
-        <v>0.03978942744299105</v>
+        <v>0.1131710230270566</v>
       </c>
       <c r="Q2">
-        <v>4.386708410345555</v>
+        <v>10.10918336158889</v>
       </c>
       <c r="R2">
-        <v>39.48037569311</v>
+        <v>90.9826502543</v>
       </c>
       <c r="S2">
-        <v>0.009824990261906138</v>
+        <v>0.02863488653333216</v>
       </c>
       <c r="T2">
-        <v>0.009824990261906138</v>
+        <v>0.02863488653333216</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.243623333333333</v>
+        <v>4.141153333333333</v>
       </c>
       <c r="H3">
-        <v>12.73087</v>
+        <v>12.42346</v>
       </c>
       <c r="I3">
-        <v>0.2469246453968972</v>
+        <v>0.2530231305454066</v>
       </c>
       <c r="J3">
-        <v>0.2469246453968973</v>
+        <v>0.2530231305454066</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>21.419726</v>
       </c>
       <c r="O3">
-        <v>0.2748263737796068</v>
+        <v>0.3310039188305578</v>
       </c>
       <c r="P3">
-        <v>0.2748263737796068</v>
+        <v>0.3310039188305577</v>
       </c>
       <c r="Q3">
-        <v>30.29908301573555</v>
+        <v>29.56745657466222</v>
       </c>
       <c r="R3">
-        <v>272.69174714162</v>
+        <v>266.10710917196</v>
       </c>
       <c r="S3">
-        <v>0.06786140489124455</v>
+        <v>0.08375164776530541</v>
       </c>
       <c r="T3">
-        <v>0.06786140489124455</v>
+        <v>0.0837516477653054</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.243623333333333</v>
+        <v>4.141153333333333</v>
       </c>
       <c r="H4">
-        <v>12.73087</v>
+        <v>12.42346</v>
       </c>
       <c r="I4">
-        <v>0.2469246453968972</v>
+        <v>0.2530231305454066</v>
       </c>
       <c r="J4">
-        <v>0.2469246453968973</v>
+        <v>0.2530231305454066</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.5830936666666667</v>
+        <v>0.1123943333333333</v>
       </c>
       <c r="N4">
-        <v>1.749281</v>
+        <v>0.337183</v>
       </c>
       <c r="O4">
-        <v>0.02244419718308089</v>
+        <v>0.005210565922413945</v>
       </c>
       <c r="P4">
-        <v>0.02244419718308088</v>
+        <v>0.005210565922413945</v>
       </c>
       <c r="Q4">
-        <v>2.474429889385556</v>
+        <v>0.465442168131111</v>
       </c>
       <c r="R4">
-        <v>22.26986900447</v>
+        <v>4.18897951318</v>
       </c>
       <c r="S4">
-        <v>0.005542025430650288</v>
+        <v>0.001318393701602391</v>
       </c>
       <c r="T4">
-        <v>0.005542025430650287</v>
+        <v>0.001318393701602391</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.243623333333333</v>
+        <v>4.141153333333333</v>
       </c>
       <c r="H5">
-        <v>12.73087</v>
+        <v>12.42346</v>
       </c>
       <c r="I5">
-        <v>0.2469246453968972</v>
+        <v>0.2530231305454066</v>
       </c>
       <c r="J5">
-        <v>0.2469246453968973</v>
+        <v>0.2530231305454066</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.222987</v>
+        <v>11.877011</v>
       </c>
       <c r="N5">
-        <v>51.668961</v>
+        <v>35.631033</v>
       </c>
       <c r="O5">
-        <v>0.6629400015943213</v>
+        <v>0.5506144922199717</v>
       </c>
       <c r="P5">
-        <v>0.6629400015943213</v>
+        <v>0.5506144922199717</v>
       </c>
       <c r="Q5">
-        <v>73.08786950289665</v>
+        <v>49.18452369268666</v>
       </c>
       <c r="R5">
-        <v>657.79082552607</v>
+        <v>442.66071323418</v>
       </c>
       <c r="S5">
-        <v>0.1636962248130963</v>
+        <v>0.1393182025451667</v>
       </c>
       <c r="T5">
-        <v>0.1636962248130963</v>
+        <v>0.1393182025451667</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>17.596475</v>
       </c>
       <c r="I6">
-        <v>0.3412966552647516</v>
+        <v>0.3583796455306321</v>
       </c>
       <c r="J6">
-        <v>0.3412966552647516</v>
+        <v>0.358379645530632</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>1.033717666666667</v>
+        <v>2.441151666666667</v>
       </c>
       <c r="N6">
-        <v>3.101153</v>
+        <v>7.323455</v>
       </c>
       <c r="O6">
-        <v>0.03978942744299106</v>
+        <v>0.1131710230270566</v>
       </c>
       <c r="P6">
-        <v>0.03978942744299105</v>
+        <v>0.1131710230270566</v>
       </c>
       <c r="Q6">
-        <v>6.063262359519445</v>
+        <v>14.31855475790278</v>
       </c>
       <c r="R6">
-        <v>54.569361235675</v>
+        <v>128.866992821125</v>
       </c>
       <c r="S6">
-        <v>0.01357999850119237</v>
+        <v>0.04055819111677554</v>
       </c>
       <c r="T6">
-        <v>0.01357999850119236</v>
+        <v>0.04055819111677553</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>17.596475</v>
       </c>
       <c r="I7">
-        <v>0.3412966552647516</v>
+        <v>0.3583796455306321</v>
       </c>
       <c r="J7">
-        <v>0.3412966552647516</v>
+        <v>0.358379645530632</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>21.419726</v>
       </c>
       <c r="O7">
-        <v>0.2748263737796068</v>
+        <v>0.3310039188305578</v>
       </c>
       <c r="P7">
-        <v>0.2748263737796068</v>
+        <v>0.3310039188305577</v>
       </c>
       <c r="Q7">
         <v>41.87907478509445</v>
@@ -883,10 +883,10 @@
         <v>376.91167306585</v>
       </c>
       <c r="S7">
-        <v>0.09379732214952025</v>
+        <v>0.1186250670997454</v>
       </c>
       <c r="T7">
-        <v>0.09379732214952023</v>
+        <v>0.1186250670997454</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,40 +915,40 @@
         <v>17.596475</v>
       </c>
       <c r="I8">
-        <v>0.3412966552647516</v>
+        <v>0.3583796455306321</v>
       </c>
       <c r="J8">
-        <v>0.3412966552647516</v>
+        <v>0.358379645530632</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.5830936666666667</v>
+        <v>0.1123943333333333</v>
       </c>
       <c r="N8">
-        <v>1.749281</v>
+        <v>0.337183</v>
       </c>
       <c r="O8">
-        <v>0.02244419718308089</v>
+        <v>0.005210565922413945</v>
       </c>
       <c r="P8">
-        <v>0.02244419718308088</v>
+        <v>0.005210565922413945</v>
       </c>
       <c r="Q8">
-        <v>3.420131042719445</v>
+        <v>0.6592480255472223</v>
       </c>
       <c r="R8">
-        <v>30.781179384475</v>
+        <v>5.933232229925001</v>
       </c>
       <c r="S8">
-        <v>0.007660129428688067</v>
+        <v>0.0018673607682887</v>
       </c>
       <c r="T8">
-        <v>0.007660129428688065</v>
+        <v>0.0018673607682887</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>17.596475</v>
       </c>
       <c r="I9">
-        <v>0.3412966552647516</v>
+        <v>0.3583796455306321</v>
       </c>
       <c r="J9">
-        <v>0.3412966552647516</v>
+        <v>0.358379645530632</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>17.222987</v>
+        <v>11.877011</v>
       </c>
       <c r="N9">
-        <v>51.668961</v>
+        <v>35.631033</v>
       </c>
       <c r="O9">
-        <v>0.6629400015943213</v>
+        <v>0.5506144922199717</v>
       </c>
       <c r="P9">
-        <v>0.6629400015943213</v>
+        <v>0.5506144922199717</v>
       </c>
       <c r="Q9">
-        <v>101.0212867236083</v>
+        <v>69.66450904540835</v>
       </c>
       <c r="R9">
-        <v>909.1915805124752</v>
+        <v>626.9805814086751</v>
       </c>
       <c r="S9">
-        <v>0.226259205185351</v>
+        <v>0.1973290265458224</v>
       </c>
       <c r="T9">
-        <v>0.226259205185351</v>
+        <v>0.1973290265458224</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.9536773333333334</v>
+        <v>0.467591</v>
       </c>
       <c r="H10">
-        <v>2.861032</v>
+        <v>1.402773</v>
       </c>
       <c r="I10">
-        <v>0.05549183300663472</v>
+        <v>0.02856965900840602</v>
       </c>
       <c r="J10">
-        <v>0.05549183300663472</v>
+        <v>0.02856965900840601</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1.033717666666667</v>
+        <v>2.441151666666667</v>
       </c>
       <c r="N10">
-        <v>3.101153</v>
+        <v>7.323455</v>
       </c>
       <c r="O10">
-        <v>0.03978942744299106</v>
+        <v>0.1131710230270566</v>
       </c>
       <c r="P10">
-        <v>0.03978942744299105</v>
+        <v>0.1131710230270566</v>
       </c>
       <c r="Q10">
-        <v>0.9858331077662223</v>
+        <v>1.141460548968334</v>
       </c>
       <c r="R10">
-        <v>8.872497969896001</v>
+        <v>10.273144940715</v>
       </c>
       <c r="S10">
-        <v>0.002207988263096069</v>
+        <v>0.003233257537515472</v>
       </c>
       <c r="T10">
-        <v>0.002207988263096068</v>
+        <v>0.003233257537515471</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.9536773333333334</v>
+        <v>0.467591</v>
       </c>
       <c r="H11">
-        <v>2.861032</v>
+        <v>1.402773</v>
       </c>
       <c r="I11">
-        <v>0.05549183300663472</v>
+        <v>0.02856965900840602</v>
       </c>
       <c r="J11">
-        <v>0.05549183300663472</v>
+        <v>0.02856965900840601</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>21.419726</v>
       </c>
       <c r="O11">
-        <v>0.2748263737796068</v>
+        <v>0.3310039188305578</v>
       </c>
       <c r="P11">
-        <v>0.2748263737796068</v>
+        <v>0.3310039188305577</v>
       </c>
       <c r="Q11">
-        <v>6.809169057470223</v>
+        <v>3.338557033355334</v>
       </c>
       <c r="R11">
-        <v>61.28252151723201</v>
+        <v>30.047013300198</v>
       </c>
       <c r="S11">
-        <v>0.01525061923959692</v>
+        <v>0.00945666909143514</v>
       </c>
       <c r="T11">
-        <v>0.01525061923959692</v>
+        <v>0.009456669091435136</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.9536773333333334</v>
+        <v>0.467591</v>
       </c>
       <c r="H12">
-        <v>2.861032</v>
+        <v>1.402773</v>
       </c>
       <c r="I12">
-        <v>0.05549183300663472</v>
+        <v>0.02856965900840602</v>
       </c>
       <c r="J12">
-        <v>0.05549183300663472</v>
+        <v>0.02856965900840601</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.5830936666666667</v>
+        <v>0.1123943333333333</v>
       </c>
       <c r="N12">
-        <v>1.749281</v>
+        <v>0.337183</v>
       </c>
       <c r="O12">
-        <v>0.02244419718308089</v>
+        <v>0.005210565922413945</v>
       </c>
       <c r="P12">
-        <v>0.02244419718308088</v>
+        <v>0.005210565922413945</v>
       </c>
       <c r="Q12">
-        <v>0.5560832131102224</v>
+        <v>0.05255457871766667</v>
       </c>
       <c r="R12">
-        <v>5.004748917992001</v>
+        <v>0.4729912084590001</v>
       </c>
       <c r="S12">
-        <v>0.001245469642051506</v>
+        <v>0.000148864091644187</v>
       </c>
       <c r="T12">
-        <v>0.001245469642051506</v>
+        <v>0.0001488640916441869</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.9536773333333334</v>
+        <v>0.467591</v>
       </c>
       <c r="H13">
-        <v>2.861032</v>
+        <v>1.402773</v>
       </c>
       <c r="I13">
-        <v>0.05549183300663472</v>
+        <v>0.02856965900840602</v>
       </c>
       <c r="J13">
-        <v>0.05549183300663472</v>
+        <v>0.02856965900840601</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>17.222987</v>
+        <v>11.877011</v>
       </c>
       <c r="N13">
-        <v>51.668961</v>
+        <v>35.631033</v>
       </c>
       <c r="O13">
-        <v>0.6629400015943213</v>
+        <v>0.5506144922199717</v>
       </c>
       <c r="P13">
-        <v>0.6629400015943213</v>
+        <v>0.5506144922199717</v>
       </c>
       <c r="Q13">
-        <v>16.42517231419467</v>
+        <v>5.553583450501001</v>
       </c>
       <c r="R13">
-        <v>147.826550827752</v>
+        <v>49.98225105450901</v>
       </c>
       <c r="S13">
-        <v>0.03678775586189024</v>
+        <v>0.01573086828781122</v>
       </c>
       <c r="T13">
-        <v>0.03678775586189024</v>
+        <v>0.01573086828781122</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.123111999999999</v>
+        <v>5.892462666666667</v>
       </c>
       <c r="H14">
-        <v>18.369336</v>
+        <v>17.677388</v>
       </c>
       <c r="I14">
-        <v>0.3562868663317164</v>
+        <v>0.3600275649155554</v>
       </c>
       <c r="J14">
-        <v>0.3562868663317164</v>
+        <v>0.3600275649155554</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>1.033717666666667</v>
+        <v>2.441151666666667</v>
       </c>
       <c r="N14">
-        <v>3.101153</v>
+        <v>7.323455</v>
       </c>
       <c r="O14">
-        <v>0.03978942744299106</v>
+        <v>0.1131710230270566</v>
       </c>
       <c r="P14">
-        <v>0.03978942744299105</v>
+        <v>0.1131710230270566</v>
       </c>
       <c r="Q14">
-        <v>6.329569049378666</v>
+        <v>14.38439505950445</v>
       </c>
       <c r="R14">
-        <v>56.96612144440799</v>
+        <v>129.45955553554</v>
       </c>
       <c r="S14">
-        <v>0.01417645041679648</v>
+        <v>0.04074468783943343</v>
       </c>
       <c r="T14">
-        <v>0.01417645041679648</v>
+        <v>0.04074468783943342</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.123111999999999</v>
+        <v>5.892462666666667</v>
       </c>
       <c r="H15">
-        <v>18.369336</v>
+        <v>17.677388</v>
       </c>
       <c r="I15">
-        <v>0.3562868663317164</v>
+        <v>0.3600275649155554</v>
       </c>
       <c r="J15">
-        <v>0.3562868663317164</v>
+        <v>0.3600275649155554</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>21.419726</v>
       </c>
       <c r="O15">
-        <v>0.2748263737796068</v>
+        <v>0.3310039188305578</v>
       </c>
       <c r="P15">
-        <v>0.2748263737796068</v>
+        <v>0.3310039188305577</v>
       </c>
       <c r="Q15">
-        <v>43.71846043577066</v>
+        <v>42.07164526174311</v>
       </c>
       <c r="R15">
-        <v>393.466143921936</v>
+        <v>378.644807355688</v>
       </c>
       <c r="S15">
-        <v>0.09791702749924511</v>
+        <v>0.1191705348740719</v>
       </c>
       <c r="T15">
-        <v>0.09791702749924509</v>
+        <v>0.1191705348740719</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,46 +1405,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.123111999999999</v>
+        <v>5.892462666666667</v>
       </c>
       <c r="H16">
-        <v>18.369336</v>
+        <v>17.677388</v>
       </c>
       <c r="I16">
-        <v>0.3562868663317164</v>
+        <v>0.3600275649155554</v>
       </c>
       <c r="J16">
-        <v>0.3562868663317164</v>
+        <v>0.3600275649155554</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.5830936666666667</v>
+        <v>0.1123943333333333</v>
       </c>
       <c r="N16">
-        <v>1.749281</v>
+        <v>0.337183</v>
       </c>
       <c r="O16">
-        <v>0.02244419718308089</v>
+        <v>0.005210565922413945</v>
       </c>
       <c r="P16">
-        <v>0.02244419718308088</v>
+        <v>0.005210565922413945</v>
       </c>
       <c r="Q16">
-        <v>3.570347827490667</v>
+        <v>0.6622794131115556</v>
       </c>
       <c r="R16">
-        <v>32.13313044741599</v>
+        <v>5.960514718004</v>
       </c>
       <c r="S16">
-        <v>0.007996572681691025</v>
+        <v>0.001875947360878668</v>
       </c>
       <c r="T16">
-        <v>0.007996572681691025</v>
+        <v>0.001875947360878667</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.123111999999999</v>
+        <v>5.892462666666667</v>
       </c>
       <c r="H17">
-        <v>18.369336</v>
+        <v>17.677388</v>
       </c>
       <c r="I17">
-        <v>0.3562868663317164</v>
+        <v>0.3600275649155554</v>
       </c>
       <c r="J17">
-        <v>0.3562868663317164</v>
+        <v>0.3600275649155554</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.222987</v>
+        <v>11.877011</v>
       </c>
       <c r="N17">
-        <v>51.668961</v>
+        <v>35.631033</v>
       </c>
       <c r="O17">
-        <v>0.6629400015943213</v>
+        <v>0.5506144922199717</v>
       </c>
       <c r="P17">
-        <v>0.6629400015943213</v>
+        <v>0.5506144922199717</v>
       </c>
       <c r="Q17">
-        <v>105.458278375544</v>
+        <v>69.98484390908935</v>
       </c>
       <c r="R17">
-        <v>949.1245053798959</v>
+        <v>629.863595181804</v>
       </c>
       <c r="S17">
-        <v>0.2361968157339838</v>
+        <v>0.1982363948411714</v>
       </c>
       <c r="T17">
-        <v>0.2361968157339838</v>
+        <v>0.1982363948411714</v>
       </c>
     </row>
   </sheetData>
